--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t xml:space="preserve">person</t>
   </si>
@@ -37,40 +37,40 @@
     <t xml:space="preserve">father</t>
   </si>
   <si>
-    <t xml:space="preserve">child1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child3</t>
+    <t xml:space="preserve">children</t>
   </si>
   <si>
     <t xml:space="preserve">person_A</t>
   </si>
   <si>
+    <t xml:space="preserve">person_C, person_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person_B</t>
+  </si>
+  <si>
     <t xml:space="preserve">person_C</t>
   </si>
   <si>
+    <t xml:space="preserve">person_E, person_F, person_G</t>
+  </si>
+  <si>
     <t xml:space="preserve">person_D</t>
   </si>
   <si>
-    <t xml:space="preserve">person_B</t>
+    <t xml:space="preserve">person_H</t>
   </si>
   <si>
     <t xml:space="preserve">person_E</t>
   </si>
   <si>
+    <t xml:space="preserve">person_J</t>
+  </si>
+  <si>
     <t xml:space="preserve">person_F</t>
   </si>
   <si>
     <t xml:space="preserve">person_G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_J</t>
   </si>
   <si>
     <t xml:space="preserve">person_I</t>
@@ -192,17 +192,18 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -221,16 +222,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1900</v>
@@ -239,15 +236,12 @@
         <v>1976</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1902</v>
@@ -256,10 +250,7 @@
         <v>1972</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,24 +264,18 @@
         <v>1983</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1930</v>
@@ -299,18 +284,18 @@
         <v>1988</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1945</v>
@@ -322,12 +307,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1948</v>
@@ -341,7 +326,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1950</v>
@@ -353,12 +338,12 @@
         <v>9</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1970</v>
@@ -367,10 +352,10 @@
         <v>2010</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>17</v>
@@ -387,7 +372,7 @@
         <v>2019</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>18</v>
@@ -395,7 +380,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1975</v>
@@ -404,7 +389,7 @@
         <v>2011</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>19</v>
@@ -421,7 +406,7 @@
         <v>2019</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>18</v>
